--- a/test_iso.xlsx
+++ b/test_iso.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="2_50" sheetId="1" r:id="rId1"/>
-    <sheet name="3_14" sheetId="2" r:id="rId2"/>
-    <sheet name="3_53" sheetId="3" r:id="rId3"/>
+    <sheet name="2_50_N2" sheetId="1" r:id="rId1"/>
+    <sheet name="3_14_N2" sheetId="2" r:id="rId2"/>
+    <sheet name="3_14_Ar" sheetId="4" r:id="rId3"/>
+    <sheet name="3_53_N2" sheetId="3" r:id="rId4"/>
+    <sheet name="1_223_kerogen_N2" sheetId="5" r:id="rId5"/>
+    <sheet name="1_223_kerogen_Ar" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>p_rels</t>
   </si>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +677,213 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.30039199357601903</v>
+      </c>
+      <c r="B2">
+        <v>23.485313979899978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35157831214384816</v>
+      </c>
+      <c r="B3">
+        <v>25.096830687341605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.40083385408149758</v>
+      </c>
+      <c r="B4">
+        <v>26.654272914671349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.45023812996431944</v>
+      </c>
+      <c r="B5">
+        <v>28.328064345279635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.50017180111076964</v>
+      </c>
+      <c r="B6">
+        <v>30.063851833641163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.55050893566871761</v>
+      </c>
+      <c r="B7">
+        <v>31.971497841535967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.60052934519391066</v>
+      </c>
+      <c r="B8">
+        <v>34.086843797606051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.65035155363844099</v>
+      </c>
+      <c r="B9">
+        <v>36.530207219789425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69967237242768132</v>
+      </c>
+      <c r="B10">
+        <v>39.372755128896202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74970732790560368</v>
+      </c>
+      <c r="B11">
+        <v>42.820418167589622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.79949086509117706</v>
+      </c>
+      <c r="B12">
+        <v>47.301878156506106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.82436493184885828</v>
+      </c>
+      <c r="B13">
+        <v>50.324152157731945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.85020022918810589</v>
+      </c>
+      <c r="B14">
+        <v>53.963825289124699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.87422796715016959</v>
+      </c>
+      <c r="B15">
+        <v>58.176293881272059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.89901568768798401</v>
+      </c>
+      <c r="B16">
+        <v>63.721176227716434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.9230713909952859</v>
+      </c>
+      <c r="B17">
+        <v>71.004175191356225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.94648540550914972</v>
+      </c>
+      <c r="B18">
+        <v>81.629143906460556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.95785726488730905</v>
+      </c>
+      <c r="B19">
+        <v>89.565133774591999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96849475642195881</v>
+      </c>
+      <c r="B20">
+        <v>100.10731982164464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.97758804409711664</v>
+      </c>
+      <c r="B21">
+        <v>113.56300189177291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.9860010623627754</v>
+      </c>
+      <c r="B22">
+        <v>134.30653303464081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.9903985579994079</v>
+      </c>
+      <c r="B23">
+        <v>152.57754298777792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.99347609632619271</v>
+      </c>
+      <c r="B24">
+        <v>169.6468955741785</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0.30554898024114185</v>
       </c>
       <c r="B2">
@@ -790,6 +1000,556 @@
       </c>
       <c r="B16">
         <v>14.521108368585018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30119253839666976</v>
+      </c>
+      <c r="B2">
+        <v>43.520344870481068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35193313464421877</v>
+      </c>
+      <c r="B3">
+        <v>46.189840567168481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.40016151218164148</v>
+      </c>
+      <c r="B4">
+        <v>48.724705505002504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.450009765625</v>
+      </c>
+      <c r="B5">
+        <v>51.47611203514024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.49952183894121072</v>
+      </c>
+      <c r="B6">
+        <v>54.393964482663613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.54932484371947043</v>
+      </c>
+      <c r="B7">
+        <v>57.711395193162211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59987771594002193</v>
+      </c>
+      <c r="B8">
+        <v>61.343723298054684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.6132573854161304</v>
+      </c>
+      <c r="B9">
+        <v>62.539558439217842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.62683866021608314</v>
+      </c>
+      <c r="B10">
+        <v>63.793438110225999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.64014058230669524</v>
+      </c>
+      <c r="B11">
+        <v>65.094393989811252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.65281551932676074</v>
+      </c>
+      <c r="B12">
+        <v>66.378532583145684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.66623064879083416</v>
+      </c>
+      <c r="B13">
+        <v>67.762470191850198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.67855385122352663</v>
+      </c>
+      <c r="B14">
+        <v>69.156763250204108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.69186186939045646</v>
+      </c>
+      <c r="B15">
+        <v>70.568007301422512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.70480475512773422</v>
+      </c>
+      <c r="B16">
+        <v>72.008178716829818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.71757888953986826</v>
+      </c>
+      <c r="B17">
+        <v>73.585128859709059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.72921354495469559</v>
+      </c>
+      <c r="B18">
+        <v>75.019576425249994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.7409401958050934</v>
+      </c>
+      <c r="B19">
+        <v>76.530757086478957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.75228916849994132</v>
+      </c>
+      <c r="B20">
+        <v>78.269147021443175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.76334982130392481</v>
+      </c>
+      <c r="B21">
+        <v>80.059175636229156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.77419236031243888</v>
+      </c>
+      <c r="B22">
+        <v>81.883503928365769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.7851260478131955</v>
+      </c>
+      <c r="B23">
+        <v>83.816580574711182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.79605812346509619</v>
+      </c>
+      <c r="B24">
+        <v>85.708138105225331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.80634007773235239</v>
+      </c>
+      <c r="B25">
+        <v>87.890532543024307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.81664849632475134</v>
+      </c>
+      <c r="B26">
+        <v>90.057698662021082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.8265550193224771</v>
+      </c>
+      <c r="B27">
+        <v>92.464762002472057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.83636431184420357</v>
+      </c>
+      <c r="B28">
+        <v>94.839217638968705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.84722632038814771</v>
+      </c>
+      <c r="B29">
+        <v>97.57794899358376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.85666529344358933</v>
+      </c>
+      <c r="B30">
+        <v>100.24158747798405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.86569413865232725</v>
+      </c>
+      <c r="B31">
+        <v>103.21319750833669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.87416809033559761</v>
+      </c>
+      <c r="B32">
+        <v>106.40969503453539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.88334306853582556</v>
+      </c>
+      <c r="B33">
+        <v>109.69455746672806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.89171370882645395</v>
+      </c>
+      <c r="B34">
+        <v>113.28470368738286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.90012886877265474</v>
+      </c>
+      <c r="B35">
+        <v>117.3147693592414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.97360841729458814</v>
+      </c>
+      <c r="B36">
+        <v>201.07762495135049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.97899290563827113</v>
+      </c>
+      <c r="B37">
+        <v>219.25214593472057</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.98763923688181277</v>
+      </c>
+      <c r="B38">
+        <v>270.70623602418016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.99209903819206502</v>
+      </c>
+      <c r="B39">
+        <v>322.94745812676013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.99265046495675524</v>
+      </c>
+      <c r="B40">
+        <v>331.09447803577751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30035589377417815</v>
+      </c>
+      <c r="B2">
+        <v>52.571591696904839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35194522049085075</v>
+      </c>
+      <c r="B3">
+        <v>56.279304316433425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.39969265288034533</v>
+      </c>
+      <c r="B4">
+        <v>59.739841141420207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.45012415919319165</v>
+      </c>
+      <c r="B5">
+        <v>63.488239313717379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.49947729770145866</v>
+      </c>
+      <c r="B6">
+        <v>67.393691305711002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.54935387389567159</v>
+      </c>
+      <c r="B7">
+        <v>71.631260580204739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59937364916865066</v>
+      </c>
+      <c r="B8">
+        <v>76.43755426948168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.64872423838742388</v>
+      </c>
+      <c r="B9">
+        <v>81.690630948754688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69797208521740228</v>
+      </c>
+      <c r="B10">
+        <v>87.975412368040367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74767131213207094</v>
+      </c>
+      <c r="B11">
+        <v>95.709974907273704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.79700683760795576</v>
+      </c>
+      <c r="B12">
+        <v>105.70348102084671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.82356379067037888</v>
+      </c>
+      <c r="B13">
+        <v>112.52051587474033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.84858404237334506</v>
+      </c>
+      <c r="B14">
+        <v>120.56034663543336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.87250918518891762</v>
+      </c>
+      <c r="B15">
+        <v>130.07385737456764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.8965256616526005</v>
+      </c>
+      <c r="B16">
+        <v>142.39983834985941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92084885224755175</v>
+      </c>
+      <c r="B17">
+        <v>158.87843884429617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.94857153338927436</v>
+      </c>
+      <c r="B18">
+        <v>189.13090605152126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.95804263910360865</v>
+      </c>
+      <c r="B19">
+        <v>204.44244336656558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96661116187918417</v>
+      </c>
+      <c r="B20">
+        <v>224.4564731482709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.97475835748665551</v>
+      </c>
+      <c r="B21">
+        <v>247.94420413181876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.98423011514120828</v>
+      </c>
+      <c r="B22">
+        <v>291.91300217733379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.98929717658768757</v>
+      </c>
+      <c r="B23">
+        <v>331.56311915239809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.99120273467814202</v>
+      </c>
+      <c r="B24">
+        <v>349.61352603441293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.9922860705472033</v>
+      </c>
+      <c r="B25">
+        <v>367.46853766804099</v>
       </c>
     </row>
   </sheetData>

--- a/test_iso.xlsx
+++ b/test_iso.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2_50_N2" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="3_53_N2" sheetId="3" r:id="rId4"/>
     <sheet name="1_223_kerogen_N2" sheetId="5" r:id="rId5"/>
     <sheet name="1_223_kerogen_Ar" sheetId="6" r:id="rId6"/>
+    <sheet name="3_14_450_Ar" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
     <t>p_rels</t>
   </si>
@@ -1346,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,4 +1556,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30172053498511303</v>
+      </c>
+      <c r="B2">
+        <v>3.6595581879446502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35236332448971602</v>
+      </c>
+      <c r="B3">
+        <v>3.8592015727635478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.39985837455865203</v>
+      </c>
+      <c r="B4">
+        <v>4.0596561870241876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.45033890154206341</v>
+      </c>
+      <c r="B5">
+        <v>4.2762026504210953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.50048209182030345</v>
+      </c>
+      <c r="B6">
+        <v>4.5066421098087011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.55003417968750001</v>
+      </c>
+      <c r="B7">
+        <v>4.7647865448865598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.60073184856411699</v>
+      </c>
+      <c r="B8">
+        <v>5.0481570737387598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.64921966101138173</v>
+      </c>
+      <c r="B9">
+        <v>5.3620349274753973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69962655156605735</v>
+      </c>
+      <c r="B10">
+        <v>5.7516237668473202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74907074280453989</v>
+      </c>
+      <c r="B11">
+        <v>6.2259990706186743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.79740065092965196</v>
+      </c>
+      <c r="B12">
+        <v>6.8441660364638288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.8248517614675025</v>
+      </c>
+      <c r="B13">
+        <v>7.3106820757808313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.8497717855276864</v>
+      </c>
+      <c r="B14">
+        <v>7.837970571928679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.87394591940737343</v>
+      </c>
+      <c r="B15">
+        <v>8.498883837441527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.8975690236210353</v>
+      </c>
+      <c r="B16">
+        <v>9.3445206171776185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92139211268813814</v>
+      </c>
+      <c r="B17">
+        <v>10.535525294843502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.9452444412305242</v>
+      </c>
+      <c r="B18">
+        <v>12.289472436757185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.95825887877078375</v>
+      </c>
+      <c r="B19">
+        <v>13.621513966841537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96827822773500505</v>
+      </c>
+      <c r="B20">
+        <v>15.015456069562429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.97853391522920097</v>
+      </c>
+      <c r="B21">
+        <v>16.709964933300334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.988080754201205</v>
+      </c>
+      <c r="B22">
+        <v>18.738489128252326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.99432931523200285</v>
+      </c>
+      <c r="B23">
+        <v>20.464298695517503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_iso.xlsx
+++ b/test_iso.xlsx
@@ -4,23 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="638" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="2_50_N2" sheetId="1" r:id="rId1"/>
-    <sheet name="3_14_N2" sheetId="2" r:id="rId2"/>
-    <sheet name="3_14_Ar" sheetId="4" r:id="rId3"/>
-    <sheet name="3_53_N2" sheetId="3" r:id="rId4"/>
-    <sheet name="1_223_kerogen_N2" sheetId="5" r:id="rId5"/>
-    <sheet name="1_223_kerogen_Ar" sheetId="6" r:id="rId6"/>
-    <sheet name="3_14_450_Ar" sheetId="7" r:id="rId7"/>
+    <sheet name="3_14_F1_N2" sheetId="2" r:id="rId1"/>
+    <sheet name="3_14_110_N2" sheetId="9" r:id="rId2"/>
+    <sheet name="3_14_250_N2" sheetId="11" r:id="rId3"/>
+    <sheet name="3_14_450_N2" sheetId="12" r:id="rId4"/>
+    <sheet name="3_14_650_N2" sheetId="13" r:id="rId5"/>
+    <sheet name="3_14_110_Ar" sheetId="8" r:id="rId6"/>
+    <sheet name="3_14_250_Ar" sheetId="10" r:id="rId7"/>
+    <sheet name="3_14_450_Ar" sheetId="7" r:id="rId8"/>
+    <sheet name="3_14_650_Ar" sheetId="14" r:id="rId9"/>
+    <sheet name="3_53_N2" sheetId="3" r:id="rId10"/>
+    <sheet name="3_14_kerogen_Ar" sheetId="4" r:id="rId11"/>
+    <sheet name="1_223_kerogen_N2" sheetId="5" r:id="rId12"/>
+    <sheet name="1_223_kerogen_Ar" sheetId="6" r:id="rId13"/>
+    <sheet name="2_50_N2" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
   <si>
     <t>p_rels</t>
   </si>
@@ -374,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,114 +399,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.30537101148643003</v>
+        <v>0.30445319455203312</v>
       </c>
       <c r="B2">
-        <v>1.9361719284057235</v>
+        <v>3.5950086088519155</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.34902230070455581</v>
+        <v>0.35455676356855859</v>
       </c>
       <c r="B3">
-        <v>2.0644857974016215</v>
+        <v>3.8327177640354604</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.39920816712321372</v>
+        <v>0.39906515340766185</v>
       </c>
       <c r="B4">
-        <v>2.2171693781886015</v>
+        <v>4.05340357692483</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.44930658508952898</v>
+        <v>0.44914481006871049</v>
       </c>
       <c r="B5">
-        <v>2.3760845307933316</v>
+        <v>4.3075433999945467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.49914539774367067</v>
+        <v>0.49916705496554203</v>
       </c>
       <c r="B6">
-        <v>2.5442594698869558</v>
+        <v>4.5726198506926412</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.54910595224380077</v>
+        <v>0.5489732514228236</v>
       </c>
       <c r="B7">
-        <v>2.7292812571979304</v>
+        <v>4.8587366902635623</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.59909650553033256</v>
+        <v>0.59911312264117922</v>
       </c>
       <c r="B8">
-        <v>2.9390725734157996</v>
+        <v>5.1809870686558464</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.71094492224942452</v>
+        <v>0.70041378279290378</v>
       </c>
       <c r="B9">
-        <v>3.5405426420187402</v>
+        <v>5.9915874837346248</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.81744490988396556</v>
+        <v>0.79602164341905313</v>
       </c>
       <c r="B10">
-        <v>4.5103259499131836</v>
+        <v>7.2030932013992466</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.89958988607982904</v>
+        <v>0.88106022516497462</v>
       </c>
       <c r="B11">
-        <v>6.0410724277435879</v>
+        <v>9.2647122570349776</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.97318097889671651</v>
+        <v>0.93408761603694013</v>
       </c>
       <c r="B12">
-        <v>9.6309673435988508</v>
+        <v>12.069036142587246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.97854163411890449</v>
+        <v>0.96615712095193573</v>
       </c>
       <c r="B13">
-        <v>10.167266362518374</v>
+        <v>15.507822704702773</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.98834457875532544</v>
+        <v>0.97399365243244229</v>
       </c>
       <c r="B14">
-        <v>11.516228932150582</v>
+        <v>16.76395244918757</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.99365938468959936</v>
+      <c r="A15">
+        <v>0.97956734436333726</v>
       </c>
       <c r="B15">
-        <v>12.590723235858489</v>
+        <v>17.825058538513737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.98856465418934436</v>
+      </c>
+      <c r="B16">
+        <v>20.08334045077493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.99454602614850374</v>
+      </c>
+      <c r="B17">
+        <v>22.130721141974636</v>
       </c>
     </row>
   </sheetData>
@@ -507,365 +530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.30445319455203312</v>
-      </c>
-      <c r="B2">
-        <v>3.5950086088519155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.35455676356855859</v>
-      </c>
-      <c r="B3">
-        <v>3.8327177640354604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.39906515340766185</v>
-      </c>
-      <c r="B4">
-        <v>4.05340357692483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.44914481006871049</v>
-      </c>
-      <c r="B5">
-        <v>4.3075433999945467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.49916705496554203</v>
-      </c>
-      <c r="B6">
-        <v>4.5726198506926412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.5489732514228236</v>
-      </c>
-      <c r="B7">
-        <v>4.8587366902635623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.59911312264117922</v>
-      </c>
-      <c r="B8">
-        <v>5.1809870686558464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.70041378279290378</v>
-      </c>
-      <c r="B9">
-        <v>5.9915874837346248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.79602164341905313</v>
-      </c>
-      <c r="B10">
-        <v>7.2030932013992466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.88106022516497462</v>
-      </c>
-      <c r="B11">
-        <v>9.2647122570349776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.93408761603694013</v>
-      </c>
-      <c r="B12">
-        <v>12.069036142587246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.96615712095193573</v>
-      </c>
-      <c r="B13">
-        <v>15.507822704702773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.97399365243244229</v>
-      </c>
-      <c r="B14">
-        <v>16.76395244918757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.97956734436333726</v>
-      </c>
-      <c r="B15">
-        <v>17.825058538513737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.98856465418934436</v>
-      </c>
-      <c r="B16">
-        <v>20.08334045077493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.99454602614850374</v>
-      </c>
-      <c r="B17">
-        <v>22.130721141974636</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.30039199357601903</v>
-      </c>
-      <c r="B2">
-        <v>23.485313979899978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.35157831214384816</v>
-      </c>
-      <c r="B3">
-        <v>25.096830687341605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.40083385408149758</v>
-      </c>
-      <c r="B4">
-        <v>26.654272914671349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.45023812996431944</v>
-      </c>
-      <c r="B5">
-        <v>28.328064345279635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.50017180111076964</v>
-      </c>
-      <c r="B6">
-        <v>30.063851833641163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.55050893566871761</v>
-      </c>
-      <c r="B7">
-        <v>31.971497841535967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.60052934519391066</v>
-      </c>
-      <c r="B8">
-        <v>34.086843797606051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.65035155363844099</v>
-      </c>
-      <c r="B9">
-        <v>36.530207219789425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.69967237242768132</v>
-      </c>
-      <c r="B10">
-        <v>39.372755128896202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.74970732790560368</v>
-      </c>
-      <c r="B11">
-        <v>42.820418167589622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.79949086509117706</v>
-      </c>
-      <c r="B12">
-        <v>47.301878156506106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.82436493184885828</v>
-      </c>
-      <c r="B13">
-        <v>50.324152157731945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.85020022918810589</v>
-      </c>
-      <c r="B14">
-        <v>53.963825289124699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.87422796715016959</v>
-      </c>
-      <c r="B15">
-        <v>58.176293881272059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.89901568768798401</v>
-      </c>
-      <c r="B16">
-        <v>63.721176227716434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.9230713909952859</v>
-      </c>
-      <c r="B17">
-        <v>71.004175191356225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.94648540550914972</v>
-      </c>
-      <c r="B18">
-        <v>81.629143906460556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.95785726488730905</v>
-      </c>
-      <c r="B19">
-        <v>89.565133774591999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.96849475642195881</v>
-      </c>
-      <c r="B20">
-        <v>100.10731982164464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.97758804409711664</v>
-      </c>
-      <c r="B21">
-        <v>113.56300189177291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.9860010623627754</v>
-      </c>
-      <c r="B22">
-        <v>134.30653303464081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.9903985579994079</v>
-      </c>
-      <c r="B23">
-        <v>152.57754298777792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.99347609632619271</v>
-      </c>
-      <c r="B24">
-        <v>169.6468955741785</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -1008,7 +673,214 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30039199357601903</v>
+      </c>
+      <c r="B2">
+        <v>23.485313979899978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35157831214384816</v>
+      </c>
+      <c r="B3">
+        <v>25.096830687341605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.40083385408149758</v>
+      </c>
+      <c r="B4">
+        <v>26.654272914671349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.45023812996431944</v>
+      </c>
+      <c r="B5">
+        <v>28.328064345279635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.50017180111076964</v>
+      </c>
+      <c r="B6">
+        <v>30.063851833641163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.55050893566871761</v>
+      </c>
+      <c r="B7">
+        <v>31.971497841535967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.60052934519391066</v>
+      </c>
+      <c r="B8">
+        <v>34.086843797606051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.65035155363844099</v>
+      </c>
+      <c r="B9">
+        <v>36.530207219789425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69967237242768132</v>
+      </c>
+      <c r="B10">
+        <v>39.372755128896202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74970732790560368</v>
+      </c>
+      <c r="B11">
+        <v>42.820418167589622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.79949086509117706</v>
+      </c>
+      <c r="B12">
+        <v>47.301878156506106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.82436493184885828</v>
+      </c>
+      <c r="B13">
+        <v>50.324152157731945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.85020022918810589</v>
+      </c>
+      <c r="B14">
+        <v>53.963825289124699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.87422796715016959</v>
+      </c>
+      <c r="B15">
+        <v>58.176293881272059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.89901568768798401</v>
+      </c>
+      <c r="B16">
+        <v>63.721176227716434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.9230713909952859</v>
+      </c>
+      <c r="B17">
+        <v>71.004175191356225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.94648540550914972</v>
+      </c>
+      <c r="B18">
+        <v>81.629143906460556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.95785726488730905</v>
+      </c>
+      <c r="B19">
+        <v>89.565133774591999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96849475642195881</v>
+      </c>
+      <c r="B20">
+        <v>100.10731982164464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.97758804409711664</v>
+      </c>
+      <c r="B21">
+        <v>113.56300189177291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.9860010623627754</v>
+      </c>
+      <c r="B22">
+        <v>134.30653303464081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.9903985579994079</v>
+      </c>
+      <c r="B23">
+        <v>152.57754298777792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.99347609632619271</v>
+      </c>
+      <c r="B24">
+        <v>169.6468955741785</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -1343,7 +1215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1558,12 +1430,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,6 +1449,1087 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.30537101148643003</v>
+      </c>
+      <c r="B2">
+        <v>1.9361719284057235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.34902230070455581</v>
+      </c>
+      <c r="B3">
+        <v>2.0644857974016215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.39920816712321372</v>
+      </c>
+      <c r="B4">
+        <v>2.2171693781886015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.44930658508952898</v>
+      </c>
+      <c r="B5">
+        <v>2.3760845307933316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.49914539774367067</v>
+      </c>
+      <c r="B6">
+        <v>2.5442594698869558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.54910595224380077</v>
+      </c>
+      <c r="B7">
+        <v>2.7292812571979304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59909650553033256</v>
+      </c>
+      <c r="B8">
+        <v>2.9390725734157996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.71094492224942452</v>
+      </c>
+      <c r="B9">
+        <v>3.5405426420187402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.81744490988396556</v>
+      </c>
+      <c r="B10">
+        <v>4.5103259499131836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.89958988607982904</v>
+      </c>
+      <c r="B11">
+        <v>6.0410724277435879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.97318097889671651</v>
+      </c>
+      <c r="B12">
+        <v>9.6309673435988508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.97854163411890449</v>
+      </c>
+      <c r="B13">
+        <v>10.167266362518374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.98834457875532544</v>
+      </c>
+      <c r="B14">
+        <v>11.516228932150582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.99365938468959936</v>
+      </c>
+      <c r="B15">
+        <v>12.590723235858489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30001220703124998</v>
+      </c>
+      <c r="B2">
+        <v>2.6756260124670206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35037496557046738</v>
+      </c>
+      <c r="B3">
+        <v>2.8407612423636164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.39895305869909503</v>
+      </c>
+      <c r="B4">
+        <v>3.010764485368977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.44921537106144954</v>
+      </c>
+      <c r="B5">
+        <v>3.1868544216131074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.49903918999565816</v>
+      </c>
+      <c r="B6">
+        <v>3.3716894509894391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.54914162645145403</v>
+      </c>
+      <c r="B7">
+        <v>3.5725148127985933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59905764245769821</v>
+      </c>
+      <c r="B8">
+        <v>3.794504387293832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.72918620932232536</v>
+      </c>
+      <c r="B9">
+        <v>4.5379985609217837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.83766628006837429</v>
+      </c>
+      <c r="B10">
+        <v>5.7146740582262865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.91019196636822319</v>
+      </c>
+      <c r="B11">
+        <v>7.4037725738816675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.97327809376957597</v>
+      </c>
+      <c r="B12">
+        <v>11.694238740309224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.97870088630660057</v>
+      </c>
+      <c r="B13">
+        <v>12.443726066509834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.98932810211173794</v>
+      </c>
+      <c r="B14">
+        <v>14.396686370640747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.9929724592357051</v>
+      </c>
+      <c r="B15">
+        <v>15.383483354273405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.29991197395541674</v>
+      </c>
+      <c r="B2">
+        <v>3.2427694890637579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35034802974053736</v>
+      </c>
+      <c r="B3">
+        <v>3.4025750152254957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.39902774957095166</v>
+      </c>
+      <c r="B4">
+        <v>3.5665397311081306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.44904908457852616</v>
+      </c>
+      <c r="B5">
+        <v>3.7346335891853659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.49866320519342083</v>
+      </c>
+      <c r="B6">
+        <v>3.9125614962623501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.54876200020438937</v>
+      </c>
+      <c r="B7">
+        <v>4.1098515739687711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59954158850463024</v>
+      </c>
+      <c r="B8">
+        <v>4.3507315925047187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.72837801320501394</v>
+      </c>
+      <c r="B9">
+        <v>5.0675686081356837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.83910739534388146</v>
+      </c>
+      <c r="B10">
+        <v>6.2414106119575941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.9110220917774019</v>
+      </c>
+      <c r="B11">
+        <v>7.960594033046072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.97443418673826221</v>
+      </c>
+      <c r="B12">
+        <v>12.536090281267265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.97812803189114716</v>
+      </c>
+      <c r="B13">
+        <v>13.174668699086993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.98986781627682907</v>
+      </c>
+      <c r="B14">
+        <v>15.408688648856876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.99271405606448526</v>
+      </c>
+      <c r="B15">
+        <v>16.276904900245704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.2998322035593487</v>
+      </c>
+      <c r="B2">
+        <v>3.1026169909948815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.34986530301399599</v>
+      </c>
+      <c r="B3">
+        <v>3.2546229666075983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.39965565889399296</v>
+      </c>
+      <c r="B4">
+        <v>3.4227329863876452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.45023470677593702</v>
+      </c>
+      <c r="B5">
+        <v>3.5869732744461245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.49972405288919447</v>
+      </c>
+      <c r="B6">
+        <v>3.7601529826462534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.55059690378414194</v>
+      </c>
+      <c r="B7">
+        <v>3.9495872388470898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59995182586991713</v>
+      </c>
+      <c r="B8">
+        <v>4.1570545036205457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.72223517162256767</v>
+      </c>
+      <c r="B9">
+        <v>4.8181503119479414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.83493214457708265</v>
+      </c>
+      <c r="B10">
+        <v>5.9874015755785388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.90834122942688067</v>
+      </c>
+      <c r="B11">
+        <v>7.7744060724675927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.97368937944111</v>
+      </c>
+      <c r="B12">
+        <v>12.78330405817808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.97861784449021505</v>
+      </c>
+      <c r="B13">
+        <v>13.597992443288687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.98948256054112138</v>
+      </c>
+      <c r="B14">
+        <v>15.857214854744367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.99337192521813611</v>
+      </c>
+      <c r="B15">
+        <v>16.853678864685715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30029666346782652</v>
+      </c>
+      <c r="B2">
+        <v>4.7769877431222074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.3504783544538273</v>
+      </c>
+      <c r="B3">
+        <v>4.975115791114586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.39899022773935994</v>
+      </c>
+      <c r="B4">
+        <v>5.175031968783113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.44918203130435747</v>
+      </c>
+      <c r="B5">
+        <v>5.3860143579551281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.49891736287296534</v>
+      </c>
+      <c r="B6">
+        <v>5.6064216502467996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.54901637232865119</v>
+      </c>
+      <c r="B7">
+        <v>5.8477841928093204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59941300733269776</v>
+      </c>
+      <c r="B8">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.71513546997134103</v>
+      </c>
+      <c r="B9">
+        <v>6.9259357941146655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.82388179350242086</v>
+      </c>
+      <c r="B10">
+        <v>8.284578582138284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.89680937700149077</v>
+      </c>
+      <c r="B11">
+        <v>10.279885501295725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.94113672140042814</v>
+      </c>
+      <c r="B12">
+        <v>13.014083942484932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.97266354539822275</v>
+      </c>
+      <c r="B13">
+        <v>17.129616910288338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.97809363548629735</v>
+      </c>
+      <c r="B14">
+        <v>18.320229020865945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.98884025496008832</v>
+      </c>
+      <c r="B15">
+        <v>21.023579317996827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.99454701271344059</v>
+      </c>
+      <c r="B16">
+        <v>22.830994433068355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30068377896956971</v>
+      </c>
+      <c r="B2">
+        <v>3.2209743165659073</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35000244140624998</v>
+      </c>
+      <c r="B3">
+        <v>3.4259420947546984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.40079672831640417</v>
+      </c>
+      <c r="B4">
+        <v>3.6356084473105104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.45031456954183596</v>
+      </c>
+      <c r="B5">
+        <v>3.8537129959329164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.50007080078124999</v>
+      </c>
+      <c r="B6">
+        <v>4.0895049071593599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5500537109375</v>
+      </c>
+      <c r="B7">
+        <v>4.3466438899992745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.60040813621472622</v>
+      </c>
+      <c r="B8">
+        <v>4.6308685197475565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.64938306161293147</v>
+      </c>
+      <c r="B9">
+        <v>4.9463969825743854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69997485847265384</v>
+      </c>
+      <c r="B10">
+        <v>5.3294403031283171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74935552259575666</v>
+      </c>
+      <c r="B11">
+        <v>5.7966113939453718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.79857346703609744</v>
+      </c>
+      <c r="B12">
+        <v>6.4064296121829054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.8242553100009653</v>
+      </c>
+      <c r="B13">
+        <v>6.8262102983887303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.84985159629615215</v>
+      </c>
+      <c r="B14">
+        <v>7.3308859861631914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.87378495883013763</v>
+      </c>
+      <c r="B15">
+        <v>7.9264210987162604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.89779803203424191</v>
+      </c>
+      <c r="B16">
+        <v>8.6992387188870079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92183553288739095</v>
+      </c>
+      <c r="B17">
+        <v>9.7687791787191127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.94578141526829584</v>
+      </c>
+      <c r="B18">
+        <v>11.304942923554744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.95804792099630687</v>
+      </c>
+      <c r="B19">
+        <v>12.414342298264263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96861757315541774</v>
+      </c>
+      <c r="B20">
+        <v>13.625287445003579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.9782142188000853</v>
+      </c>
+      <c r="B21">
+        <v>15.054918479426108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.9879499100130944</v>
+      </c>
+      <c r="B22">
+        <v>16.985812984063628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.99426090855494242</v>
+      </c>
+      <c r="B23">
+        <v>18.60014191762497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30114437266503868</v>
+      </c>
+      <c r="B2">
+        <v>3.644782366219828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35232805591129873</v>
+      </c>
+      <c r="B3">
+        <v>3.860087890625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.40053911313735785</v>
+      </c>
+      <c r="B4">
+        <v>4.0695062814920693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.45056056201736466</v>
+      </c>
+      <c r="B5">
+        <v>4.2909009747446625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.50033128228919699</v>
+      </c>
+      <c r="B6">
+        <v>4.527433833379618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.55057082664575674</v>
+      </c>
+      <c r="B7">
+        <v>4.7867155073173828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.60019407174232253</v>
+      </c>
+      <c r="B8">
+        <v>5.0694548280995253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.65027078695810125</v>
+      </c>
+      <c r="B9">
+        <v>5.3922034276725954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69910027043214218</v>
+      </c>
+      <c r="B10">
+        <v>5.7643253424856651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74909019339433613</v>
+      </c>
+      <c r="B11">
+        <v>6.2418366141737813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.79903533876896071</v>
+      </c>
+      <c r="B12">
+        <v>6.8549243206516808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.82445058577543306</v>
+      </c>
+      <c r="B13">
+        <v>7.27268252482836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.8497785250892127</v>
+      </c>
+      <c r="B14">
+        <v>7.7754713372999182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.87348263864289177</v>
+      </c>
+      <c r="B15">
+        <v>8.3706948090460234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.89862173968021264</v>
+      </c>
+      <c r="B16">
+        <v>9.1777225490680685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92174023786309045</v>
+      </c>
+      <c r="B17">
+        <v>10.214489329978473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.94563515793817043</v>
+      </c>
+      <c r="B18">
+        <v>11.752525774389264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.95799852869053459</v>
+      </c>
+      <c r="B19">
+        <v>12.886155961496002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96912242173186114</v>
+      </c>
+      <c r="B20">
+        <v>14.149860412930273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.97859903061754194</v>
+      </c>
+      <c r="B21">
+        <v>15.482766998006809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.98773618857772527</v>
+      </c>
+      <c r="B22">
+        <v>17.2900390625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.99437577678773692</v>
+      </c>
+      <c r="B23">
+        <v>18.919512217058042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.30172053498511303</v>
       </c>
@@ -1750,6 +2703,205 @@
       </c>
       <c r="B23">
         <v>20.464298695517503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.30253536551183563</v>
+      </c>
+      <c r="B2">
+        <v>4.8763393305522884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.35213555946192421</v>
+      </c>
+      <c r="B3">
+        <v>5.1063793862435469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.40064282191836315</v>
+      </c>
+      <c r="B4">
+        <v>5.3415416154993229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.44981093785834625</v>
+      </c>
+      <c r="B5">
+        <v>5.5994138306559806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.50002075195312501</v>
+      </c>
+      <c r="B6">
+        <v>5.874798596345733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.54946658199622389</v>
+      </c>
+      <c r="B7">
+        <v>6.1701713699351153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.59955688876525381</v>
+      </c>
+      <c r="B8">
+        <v>6.50517737448925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.6497030933877852</v>
+      </c>
+      <c r="B9">
+        <v>6.8856687485239547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.69814041873671029</v>
+      </c>
+      <c r="B10">
+        <v>7.3313576155049081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.74891748925420798</v>
+      </c>
+      <c r="B11">
+        <v>7.9057849329534786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.79813377783004902</v>
+      </c>
+      <c r="B12">
+        <v>8.656852743637236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.82446936128773995</v>
+      </c>
+      <c r="B13">
+        <v>9.2002791861229429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.84909647588268089</v>
+      </c>
+      <c r="B14">
+        <v>9.8143005698376271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.87369070682669359</v>
+      </c>
+      <c r="B15">
+        <v>10.591796952452773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.89772255373941312</v>
+      </c>
+      <c r="B16">
+        <v>11.633298897701804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92208518600187694</v>
+      </c>
+      <c r="B17">
+        <v>13.106323560003977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.94443838162253946</v>
+      </c>
+      <c r="B18">
+        <v>15.130616743367481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.95713288275362041</v>
+      </c>
+      <c r="B19">
+        <v>16.804287616898613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.96831119785903363</v>
+      </c>
+      <c r="B20">
+        <v>18.618777539145682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.97773449706885118</v>
+      </c>
+      <c r="B21">
+        <v>20.646385720560122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.98625612358591941</v>
+      </c>
+      <c r="B22">
+        <v>22.813415569723997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.9931019391575272</v>
+      </c>
+      <c r="B23">
+        <v>24.681591623358962</v>
       </c>
     </row>
   </sheetData>
